--- a/output/1Y_P31_1VAL-D.xlsx
+++ b/output/1Y_P31_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>758.3053</v>
       </c>
-      <c r="G2" s="1">
-        <v>758.3053</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1319</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.1873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1319</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E3" s="1">
+        <v>758.3053</v>
+      </c>
       <c r="F3" s="1">
         <v>766.0605</v>
       </c>
-      <c r="G3" s="1">
-        <v>1524.3658</v>
-      </c>
       <c r="H3" s="1">
-        <v>19795.5667</v>
+        <v>9847.429</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.1202</v>
+        <v>9847.429</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19795.5667</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E4" s="1">
+        <v>1524.3658</v>
+      </c>
       <c r="F4" s="1">
         <v>722.3711</v>
       </c>
-      <c r="G4" s="1">
-        <v>2246.7369</v>
-      </c>
       <c r="H4" s="1">
-        <v>30940.9373</v>
+        <v>20992.8036</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.3527</v>
+        <v>20992.8036</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.1202</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30940.9373</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0384</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E5" s="1">
+        <v>2246.7369</v>
+      </c>
       <c r="F5" s="1">
         <v>694.03</v>
       </c>
-      <c r="G5" s="1">
-        <v>2940.7669</v>
-      </c>
       <c r="H5" s="1">
-        <v>42152.6581</v>
+        <v>32204.5022</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6019</v>
+        <v>32204.5022</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.3527</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42152.6581</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0296</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E6" s="1">
+        <v>2940.7669</v>
+      </c>
       <c r="F6" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G6" s="1">
-        <v>3610.3888</v>
-      </c>
       <c r="H6" s="1">
-        <v>53637.019</v>
+        <v>43688.9147</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.8489</v>
+        <v>43688.9147</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6019</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53637.019</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0285</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E7" s="1">
+        <v>3610.3888</v>
+      </c>
       <c r="F7" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G7" s="1">
-        <v>4238.084</v>
-      </c>
       <c r="H7" s="1">
-        <v>67168.12119999999</v>
+        <v>57219.9689</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1573</v>
+        <v>57219.9689</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.8489</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67168.12119999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0555</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E8" s="1">
+        <v>4238.084</v>
+      </c>
       <c r="F8" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G8" s="1">
-        <v>4825.6039</v>
-      </c>
       <c r="H8" s="1">
-        <v>81709.0548</v>
+        <v>71760.9328</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.506</v>
+        <v>71760.9328</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1573</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81709.0548</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0588</v>
+        <v>0.06759999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E9" s="1">
+        <v>4825.6039</v>
+      </c>
       <c r="F9" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G9" s="1">
-        <v>5398.3153</v>
-      </c>
       <c r="H9" s="1">
-        <v>93769.8165</v>
+        <v>83821.70419999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.8194</v>
+        <v>83821.70419999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.506</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>93769.8165</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0225</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.886</v>
       </c>
+      <c r="E10" s="1">
+        <v>5398.3153</v>
+      </c>
       <c r="F10" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G10" s="1">
-        <v>5990.5219</v>
-      </c>
       <c r="H10" s="1">
-        <v>100631.7816</v>
+        <v>90683.59970000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0237</v>
+        <v>90683.59970000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8194</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100631.7816</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0302</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.59</v>
       </c>
+      <c r="E11" s="1">
+        <v>5990.5219</v>
+      </c>
       <c r="F11" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G11" s="1">
-        <v>6559.0267</v>
-      </c>
       <c r="H11" s="1">
-        <v>114775.0964</v>
+        <v>104826.9441</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2462</v>
+        <v>104826.9441</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0237</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114775.0964</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0375</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E12" s="1">
+        <v>6559.0267</v>
+      </c>
       <c r="F12" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G12" s="1">
-        <v>7225.156</v>
-      </c>
       <c r="H12" s="1">
-        <v>107901.9251</v>
+        <v>97953.81660000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2246</v>
+        <v>97953.81660000001</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.2462</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.57</v>
       </c>
-      <c r="L12" s="1">
-        <v>21074.1528</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>11074.1528</v>
+        <v>19247.5468</v>
       </c>
       <c r="O12" s="1">
-        <v>21074.1528</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>128976.0779</v>
+        <v>9247.5468</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0337</v>
+        <v>-0.1469</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E13" s="1">
+        <v>7225.156</v>
+      </c>
       <c r="F13" s="1">
-        <v>2022.4643</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9247.6203</v>
+        <v>1903.5795</v>
       </c>
       <c r="H13" s="1">
-        <v>141348.0272</v>
+        <v>110435.0648</v>
       </c>
       <c r="I13" s="1">
-        <v>141074.1528</v>
+        <v>19247.5468</v>
       </c>
       <c r="J13" s="1">
-        <v>15.2552</v>
+        <v>129682.6115</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>129247.5468</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8885</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-31074.1528</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>141348.0272</v>
+        <v>-29247.5468</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0171</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E14" s="1">
+        <v>9128.735500000001</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9247.6203</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7225.156</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>149799.8108</v>
       </c>
       <c r="I14" s="1">
-        <v>141074.1528</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.2552</v>
+        <v>149799.8108</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>129247.5468</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1583</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>151750.6753</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>151750.6753</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>151750.6753</v>
+        <v>118562.6428</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0027</v>
+        <v>0.07240000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.1873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>758.3053</v>
       </c>
       <c r="G2" s="1">
-        <v>758.3053</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1319</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.1873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1319</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>758.3053</v>
       </c>
       <c r="F3" s="1">
         <v>766.0605</v>
       </c>
       <c r="G3" s="1">
-        <v>1524.3658</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19795.5667</v>
+        <v>9847.429</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.1202</v>
+        <v>9847.429</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19795.5667</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.8433</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1524.3658</v>
       </c>
       <c r="F4" s="1">
         <v>654.0461</v>
       </c>
       <c r="G4" s="1">
-        <v>2178.4119</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20992.8036</v>
       </c>
       <c r="I4" s="1">
-        <v>29054.1569</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.3373</v>
+        <v>20992.8036</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19054.1569</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.4997</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9054.1569</v>
       </c>
-      <c r="O4" s="1">
-        <v>945.8431</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30945.8431</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0386</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.4086</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2178.4119</v>
       </c>
       <c r="F5" s="1">
         <v>612.1754</v>
       </c>
       <c r="G5" s="1">
-        <v>2790.5873</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31225.1389</v>
       </c>
       <c r="I5" s="1">
-        <v>37874.7476</v>
+        <v>945.8431</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5723</v>
+        <v>32170.9819</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27874.7476</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.7959</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8820.5906</v>
       </c>
-      <c r="O5" s="1">
-        <v>2125.2524</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42125.2524</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0288</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.9338</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2790.5873</v>
       </c>
       <c r="F6" s="1">
         <v>574.9882</v>
       </c>
       <c r="G6" s="1">
-        <v>3365.5755</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41457.8028</v>
       </c>
       <c r="I6" s="1">
-        <v>46461.5063</v>
+        <v>2125.2524</v>
       </c>
       <c r="J6" s="1">
-        <v>13.8049</v>
+        <v>43583.0553</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36461.5063</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.0659</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8586.7588</v>
       </c>
-      <c r="O6" s="1">
-        <v>3538.4937</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53538.4937</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0271</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.9313</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3365.5755</v>
       </c>
       <c r="F7" s="1">
         <v>420.2239</v>
       </c>
       <c r="G7" s="1">
-        <v>3785.7995</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53339.9972</v>
       </c>
       <c r="I7" s="1">
-        <v>53156.2196</v>
+        <v>3538.4937</v>
       </c>
       <c r="J7" s="1">
-        <v>14.0409</v>
+        <v>56878.4908</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43156.2196</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.8228</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6694.7133</v>
       </c>
-      <c r="O7" s="1">
-        <v>6843.7804</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66843.7804</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.052</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.0207</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3785.7995</v>
       </c>
       <c r="F8" s="1">
         <v>348.2867</v>
       </c>
       <c r="G8" s="1">
-        <v>4134.0861</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>64102.6709</v>
       </c>
       <c r="I8" s="1">
-        <v>59084.3025</v>
+        <v>6843.7804</v>
       </c>
       <c r="J8" s="1">
-        <v>14.292</v>
+        <v>70946.4512</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>49084.3025</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.9654</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5928.0828</v>
       </c>
-      <c r="O8" s="1">
-        <v>10915.6975</v>
-      </c>
-      <c r="P8" s="1">
-        <v>80915.69749999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.053</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.4608</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4134.0861</v>
       </c>
       <c r="F9" s="1">
         <v>471.5028</v>
       </c>
       <c r="G9" s="1">
-        <v>4605.5889</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71809.9029</v>
       </c>
       <c r="I9" s="1">
-        <v>67317.1177</v>
+        <v>10915.6975</v>
       </c>
       <c r="J9" s="1">
-        <v>14.6164</v>
+        <v>82725.6004</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57317.1177</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8645</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8232.815199999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>12682.8823</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92682.8823</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0194</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.886</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4605.5889</v>
       </c>
       <c r="F10" s="1">
         <v>752.0323</v>
       </c>
       <c r="G10" s="1">
-        <v>5357.6212</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77366.98480000001</v>
       </c>
       <c r="I10" s="1">
-        <v>80015.9357</v>
+        <v>12682.8823</v>
       </c>
       <c r="J10" s="1">
-        <v>14.935</v>
+        <v>90049.8671</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70015.9357</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.2024</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12698.818</v>
       </c>
-      <c r="O10" s="1">
-        <v>9984.0643</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99984.0643</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0263</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.59</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5357.6212</v>
       </c>
       <c r="F11" s="1">
         <v>357.0564</v>
       </c>
       <c r="G11" s="1">
-        <v>5714.6776</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93751.9421</v>
       </c>
       <c r="I11" s="1">
-        <v>86296.55710000001</v>
+        <v>9984.0643</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1009</v>
+        <v>103736.0064</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76296.55710000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.2408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6280.6214</v>
       </c>
-      <c r="O11" s="1">
-        <v>13703.4429</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113703.4429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0338</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.0121</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5714.6776</v>
       </c>
       <c r="F12" s="1">
         <v>1578.9558</v>
       </c>
       <c r="G12" s="1">
-        <v>7293.6334</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108924.5801</v>
+        <v>85344.1379</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>13703.4429</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0816</v>
+        <v>99047.5808</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.57</v>
       </c>
-      <c r="L12" s="1">
-        <v>18361.2591</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5342.1838</v>
+        <v>17214.037</v>
       </c>
       <c r="O12" s="1">
-        <v>18361.2591</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>127285.8392</v>
+        <v>-6489.4059</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.029</v>
+        <v>-0.1291</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.3645</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7293.6334</v>
       </c>
       <c r="F13" s="1">
         <v>557.3035</v>
       </c>
       <c r="G13" s="1">
-        <v>7850.9369</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111481.728</v>
       </c>
       <c r="I13" s="1">
-        <v>118562.6891</v>
+        <v>17214.037</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1017</v>
+        <v>128695.7649</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108562.6891</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.8846</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8562.6891</v>
       </c>
-      <c r="O13" s="1">
-        <v>19798.57</v>
-      </c>
-      <c r="P13" s="1">
-        <v>139798.57</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0183</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.4953</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7850.9369</v>
       </c>
       <c r="F14" s="1">
         <v>-7850.9369</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128831.5189</v>
       </c>
       <c r="I14" s="1">
-        <v>118562.6891</v>
+        <v>18651.3479</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1017</v>
+        <v>147482.8668</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108562.6891</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.828</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128831.5189</v>
       </c>
-      <c r="O14" s="1">
-        <v>148630.0888</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148630.0888</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0078</v>
+        <v>0.0634</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.1873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>758.3053</v>
       </c>
       <c r="G2" s="1">
-        <v>758.3053</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1319</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.1873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1319</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>758.3053</v>
       </c>
       <c r="F3" s="1">
         <v>766.0605</v>
       </c>
       <c r="G3" s="1">
-        <v>1524.3658</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19795.5667</v>
+        <v>9847.429</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.1202</v>
+        <v>9847.429</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19795.5667</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.8433</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1524.3658</v>
       </c>
       <c r="F4" s="1">
         <v>664.9564</v>
       </c>
       <c r="G4" s="1">
-        <v>2189.3222</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20992.8036</v>
       </c>
       <c r="I4" s="1">
-        <v>29205.1903</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.3398</v>
+        <v>20992.8036</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19205.1903</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.5988</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9205.1903</v>
       </c>
-      <c r="O4" s="1">
-        <v>794.8097</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30945.0597</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0386</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.4086</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2189.3222</v>
       </c>
       <c r="F5" s="1">
         <v>622.2645</v>
       </c>
       <c r="G5" s="1">
-        <v>2811.5866</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31381.5248</v>
       </c>
       <c r="I5" s="1">
-        <v>38171.1499</v>
+        <v>794.8097</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5764</v>
+        <v>32176.3345</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28171.1499</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.8675</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8965.9596</v>
       </c>
-      <c r="O5" s="1">
-        <v>1828.8501</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42129.8513</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0289</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.9338</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2811.5866</v>
       </c>
       <c r="F6" s="1">
         <v>587.8134</v>
       </c>
       <c r="G6" s="1">
-        <v>3399.4</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41769.7741</v>
       </c>
       <c r="I6" s="1">
-        <v>46949.4376</v>
+        <v>1828.8501</v>
       </c>
       <c r="J6" s="1">
-        <v>13.8111</v>
+        <v>43598.6242</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36949.4376</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.1418</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8778.287700000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>3050.5624</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53553.0686</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0273</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.9313</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3399.4</v>
       </c>
       <c r="F7" s="1">
         <v>434.0386</v>
       </c>
       <c r="G7" s="1">
-        <v>3833.4386</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53876.0708</v>
       </c>
       <c r="I7" s="1">
-        <v>53864.2372</v>
+        <v>3050.5624</v>
       </c>
       <c r="J7" s="1">
-        <v>14.0512</v>
+        <v>56926.6332</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43864.2372</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.9035</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6914.7996</v>
       </c>
-      <c r="O7" s="1">
-        <v>6135.7628</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66890.7816</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0525</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.0207</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3833.4386</v>
       </c>
       <c r="F8" s="1">
         <v>363.1781</v>
       </c>
       <c r="G8" s="1">
-        <v>4196.6168</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64909.3162</v>
       </c>
       <c r="I8" s="1">
-        <v>60045.7835</v>
+        <v>6135.7628</v>
       </c>
       <c r="J8" s="1">
-        <v>14.3081</v>
+        <v>71045.079</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50045.7835</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.0551</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6181.5463</v>
       </c>
-      <c r="O8" s="1">
-        <v>9954.2165</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81013.0104</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0536</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.4608</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4196.6168</v>
       </c>
       <c r="F9" s="1">
         <v>490.3809</v>
       </c>
       <c r="G9" s="1">
-        <v>4686.9977</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>72896.0727</v>
       </c>
       <c r="I9" s="1">
-        <v>68608.2271</v>
+        <v>9954.2165</v>
       </c>
       <c r="J9" s="1">
-        <v>14.638</v>
+        <v>82850.2892</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58608.2271</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9656</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8562.4437</v>
       </c>
-      <c r="O9" s="1">
-        <v>11391.7729</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92805.8607</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0197</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.886</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4686.9977</v>
       </c>
       <c r="F10" s="1">
         <v>779.0355</v>
       </c>
       <c r="G10" s="1">
-        <v>5466.0332</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>78734.5313</v>
       </c>
       <c r="I10" s="1">
-        <v>81763.01979999999</v>
+        <v>11391.7729</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9584</v>
+        <v>90126.30409999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71763.01979999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.3111</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13154.7926</v>
       </c>
-      <c r="O10" s="1">
-        <v>8236.9802</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100058.1385</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0267</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.59</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5466.0332</v>
       </c>
       <c r="F11" s="1">
         <v>378.9541</v>
       </c>
       <c r="G11" s="1">
-        <v>5844.9873</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95649.02129999999</v>
       </c>
       <c r="I11" s="1">
-        <v>88428.82309999999</v>
+        <v>8236.9802</v>
       </c>
       <c r="J11" s="1">
-        <v>15.129</v>
+        <v>103886.0016</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78428.82309999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.3484</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6665.8034</v>
       </c>
-      <c r="O11" s="1">
-        <v>11571.1769</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113851.4409</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0345</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.0121</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5844.9873</v>
       </c>
       <c r="F12" s="1">
         <v>1436.9193</v>
       </c>
       <c r="G12" s="1">
-        <v>7281.9067</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108749.4504</v>
+        <v>87290.2096</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>11571.1769</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1059</v>
+        <v>98861.38649999999</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.1087</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.57</v>
       </c>
-      <c r="L12" s="1">
-        <v>18779.9443</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2791.2326</v>
+        <v>17562.3646</v>
       </c>
       <c r="O12" s="1">
-        <v>18779.9443</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>127529.3947</v>
+        <v>-4008.8123</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0297</v>
+        <v>-0.1319</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.3645</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7281.9067</v>
       </c>
       <c r="F13" s="1">
         <v>788.5701</v>
       </c>
       <c r="G13" s="1">
-        <v>8070.4768</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>111302.4869</v>
       </c>
       <c r="I13" s="1">
-        <v>122115.9858</v>
+        <v>17562.3646</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1312</v>
+        <v>128864.8515</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112115.9858</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.3965</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12115.9858</v>
       </c>
-      <c r="O13" s="1">
-        <v>16663.9584</v>
-      </c>
-      <c r="P13" s="1">
-        <v>140019.5821</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0181</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.4953</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8070.4768</v>
       </c>
       <c r="F14" s="1">
         <v>-8070.4768</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132434.1031</v>
       </c>
       <c r="I14" s="1">
-        <v>122115.9858</v>
+        <v>15446.3787</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1312</v>
+        <v>147880.4818</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112115.9858</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8921</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>132434.1031</v>
       </c>
-      <c r="O14" s="1">
-        <v>149098.0615</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149098.0615</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0061</v>
+        <v>0.0649</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.1873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>758.3053</v>
       </c>
       <c r="G2" s="1">
-        <v>758.3053</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1319</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.1873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1319</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>758.3053</v>
       </c>
       <c r="F3" s="1">
         <v>766.0605</v>
       </c>
       <c r="G3" s="1">
-        <v>1524.3658</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19795.5667</v>
+        <v>9847.429</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.1202</v>
+        <v>9847.429</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19795.5667</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.8433</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1524.3658</v>
       </c>
       <c r="F4" s="1">
         <v>675.9029</v>
       </c>
       <c r="G4" s="1">
-        <v>2200.2687</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20992.8036</v>
       </c>
       <c r="I4" s="1">
-        <v>29356.7263</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.3423</v>
+        <v>20992.8036</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19356.7263</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.6982</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9356.7263</v>
       </c>
-      <c r="O4" s="1">
-        <v>643.2737</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30944.2737</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0386</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.4086</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2200.2687</v>
       </c>
       <c r="F5" s="1">
         <v>632.4571999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2832.7259</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31538.4311</v>
       </c>
       <c r="I5" s="1">
-        <v>38469.5497</v>
+        <v>643.2737</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5804</v>
+        <v>32181.7048</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28469.5497</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.9391</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9112.8235</v>
       </c>
-      <c r="O5" s="1">
-        <v>1530.4503</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42134.4603</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.9338</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2832.7259</v>
       </c>
       <c r="F6" s="1">
         <v>600.8376</v>
       </c>
       <c r="G6" s="1">
-        <v>3433.5635</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42083.826</v>
       </c>
       <c r="I6" s="1">
-        <v>47442.3387</v>
+        <v>1530.4503</v>
       </c>
       <c r="J6" s="1">
-        <v>13.8172</v>
+        <v>43614.2763</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37442.3387</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.2178</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8972.789000000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2557.6613</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53567.7114</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0275</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.9313</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3433.5635</v>
       </c>
       <c r="F7" s="1">
         <v>448.1523</v>
       </c>
       <c r="G7" s="1">
-        <v>3881.7159</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54417.5186</v>
       </c>
       <c r="I7" s="1">
-        <v>54581.9881</v>
+        <v>2557.6613</v>
       </c>
       <c r="J7" s="1">
-        <v>14.0613</v>
+        <v>56975.1799</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44581.9881</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.9842</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7139.6494</v>
       </c>
-      <c r="O7" s="1">
-        <v>5418.0119</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66938.16250000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.053</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.0207</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3881.7159</v>
       </c>
       <c r="F8" s="1">
         <v>378.4807</v>
       </c>
       <c r="G8" s="1">
-        <v>4260.1966</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65726.76609999999</v>
       </c>
       <c r="I8" s="1">
-        <v>61023.994</v>
+        <v>5418.0119</v>
       </c>
       <c r="J8" s="1">
-        <v>14.3242</v>
+        <v>71144.77800000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51023.994</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.1447</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6442.0058</v>
       </c>
-      <c r="O8" s="1">
-        <v>8976.005999999999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81111.3581</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0542</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.4608</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4260.1966</v>
       </c>
       <c r="F9" s="1">
         <v>509.8525</v>
       </c>
       <c r="G9" s="1">
-        <v>4770.049</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74000.4662</v>
       </c>
       <c r="I9" s="1">
-        <v>69926.4261</v>
+        <v>8976.005999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>14.6595</v>
+        <v>82976.4722</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59926.4261</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.0666</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8902.4321</v>
       </c>
-      <c r="O9" s="1">
-        <v>10073.5739</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92930.27959999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.02</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.886</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4770.049</v>
       </c>
       <c r="F10" s="1">
         <v>806.9532</v>
       </c>
       <c r="G10" s="1">
-        <v>5577.0023</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>80129.6686</v>
       </c>
       <c r="I10" s="1">
-        <v>83552.63860000001</v>
+        <v>10073.5739</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9816</v>
+        <v>90203.24249999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73552.63860000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.4197</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13626.2125</v>
       </c>
-      <c r="O10" s="1">
-        <v>6447.3614</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100132.6341</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0272</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.59</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5577.0023</v>
       </c>
       <c r="F11" s="1">
         <v>401.8149</v>
       </c>
       <c r="G11" s="1">
-        <v>5978.8171</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>97590.8474</v>
       </c>
       <c r="I11" s="1">
-        <v>90620.5621</v>
+        <v>6447.3614</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1569</v>
+        <v>104038.2088</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80620.5621</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.4559</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7067.9236</v>
       </c>
-      <c r="O11" s="1">
-        <v>9379.437900000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114001.5633</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0351</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.0121</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5978.8171</v>
       </c>
       <c r="F12" s="1">
         <v>1290.9212</v>
       </c>
       <c r="G12" s="1">
-        <v>7269.7383</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108567.7261</v>
+        <v>89288.851</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>9379.437900000001</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1312</v>
+        <v>98668.28879999999</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.7257</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.57</v>
       </c>
-      <c r="L12" s="1">
-        <v>19209.9395</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-169.4984</v>
+        <v>17918.9083</v>
       </c>
       <c r="O12" s="1">
-        <v>19209.9395</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>127777.6656</v>
+        <v>-1460.5296</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0305</v>
+        <v>-0.1348</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.3645</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7269.7383</v>
       </c>
       <c r="F13" s="1">
         <v>1027.7226</v>
       </c>
       <c r="G13" s="1">
-        <v>8297.4609</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>111116.4963</v>
       </c>
       <c r="I13" s="1">
-        <v>125790.4433</v>
+        <v>17918.9083</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1601</v>
+        <v>129035.4046</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115790.4433</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9277</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-15790.4433</v>
       </c>
-      <c r="O13" s="1">
-        <v>13419.4962</v>
-      </c>
-      <c r="P13" s="1">
-        <v>140244.5263</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0179</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.4953</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8297.4609</v>
       </c>
       <c r="F14" s="1">
         <v>-8297.4609</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136158.8439</v>
       </c>
       <c r="I14" s="1">
-        <v>125790.4433</v>
+        <v>12128.465</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1601</v>
+        <v>148287.3089</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115790.4433</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9549</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>136158.8439</v>
       </c>
-      <c r="O14" s="1">
-        <v>149578.3401</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149578.3401</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0044</v>
+        <v>0.0665</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.1873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>758.3053</v>
       </c>
       <c r="G2" s="1">
-        <v>758.3053</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1319</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.1873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1319</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.0538</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>758.3053</v>
       </c>
       <c r="F3" s="1">
         <v>766.0605</v>
       </c>
       <c r="G3" s="1">
-        <v>1524.3658</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19795.5667</v>
+        <v>9847.429</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.1202</v>
+        <v>9847.429</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19795.5667</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.8433</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1524.3658</v>
       </c>
       <c r="F4" s="1">
         <v>686.8857</v>
       </c>
       <c r="G4" s="1">
-        <v>2211.2515</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20992.8036</v>
       </c>
       <c r="I4" s="1">
-        <v>29508.7648</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.3448</v>
+        <v>20992.8036</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19508.7648</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.798</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9508.764800000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>491.2352</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30943.4852</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0385</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.4086</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2211.2515</v>
       </c>
       <c r="F5" s="1">
         <v>642.7542999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2854.0058</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31695.8578</v>
       </c>
       <c r="I5" s="1">
-        <v>38769.9545</v>
+        <v>491.2352</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5844</v>
+        <v>32187.093</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28769.9545</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.0107</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9261.189700000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1230.0455</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42139.0793</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0292</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.9338</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2854.0058</v>
       </c>
       <c r="F6" s="1">
         <v>614.0629</v>
       </c>
       <c r="G6" s="1">
-        <v>3468.0687</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42399.9664</v>
       </c>
       <c r="I6" s="1">
-        <v>47940.2472</v>
+        <v>1230.0455</v>
       </c>
       <c r="J6" s="1">
-        <v>13.8233</v>
+        <v>43630.0119</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37940.2472</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.2937</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9170.292799999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2059.7528</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53582.422</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0277</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.9313</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3468.0687</v>
       </c>
       <c r="F7" s="1">
         <v>462.5697</v>
       </c>
       <c r="G7" s="1">
-        <v>3930.6384</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54964.3806</v>
       </c>
       <c r="I7" s="1">
-        <v>55309.5841</v>
+        <v>2059.7528</v>
       </c>
       <c r="J7" s="1">
-        <v>14.0714</v>
+        <v>57024.1334</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45309.5841</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.0648</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7369.3369</v>
       </c>
-      <c r="O7" s="1">
-        <v>4690.4159</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66985.9252</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0535</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.0207</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3930.6384</v>
       </c>
       <c r="F8" s="1">
         <v>394.2028</v>
       </c>
       <c r="G8" s="1">
-        <v>4324.8412</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66555.1422</v>
       </c>
       <c r="I8" s="1">
-        <v>62019.192</v>
+        <v>4690.4159</v>
       </c>
       <c r="J8" s="1">
-        <v>14.3402</v>
+        <v>71245.558</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52019.192</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.2343</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6709.6079</v>
       </c>
-      <c r="O8" s="1">
-        <v>7980.808</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81210.7499</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0549</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.4608</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4324.8412</v>
       </c>
       <c r="F9" s="1">
         <v>529.9325</v>
       </c>
       <c r="G9" s="1">
-        <v>4854.7738</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75123.35739999999</v>
       </c>
       <c r="I9" s="1">
-        <v>71272.2375</v>
+        <v>7980.808</v>
       </c>
       <c r="J9" s="1">
-        <v>14.6809</v>
+        <v>83104.1654</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61272.2375</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1675</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9253.0455</v>
       </c>
-      <c r="O9" s="1">
-        <v>8727.762500000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>93056.1535</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0202</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.886</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4854.7738</v>
       </c>
       <c r="F10" s="1">
         <v>835.8126999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.5865</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>81552.9169</v>
       </c>
       <c r="I10" s="1">
-        <v>85385.7712</v>
+        <v>8727.762500000001</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0047</v>
+        <v>90280.67939999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75385.7712</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5282</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-14113.5336</v>
       </c>
-      <c r="O10" s="1">
-        <v>4614.2288</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100207.5458</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0276</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.59</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5690.5865</v>
       </c>
       <c r="F11" s="1">
         <v>425.6739</v>
       </c>
       <c r="G11" s="1">
-        <v>6116.2604</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>99578.43459999999</v>
       </c>
       <c r="I11" s="1">
-        <v>92873.3747</v>
+        <v>4614.2288</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1847</v>
+        <v>104192.6635</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82873.3747</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.5632</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7487.6035</v>
       </c>
-      <c r="O11" s="1">
-        <v>7126.6253</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114153.842</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0358</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.0121</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6116.2604</v>
       </c>
       <c r="F12" s="1">
         <v>1140.8547</v>
       </c>
       <c r="G12" s="1">
-        <v>7257.1151</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108379.2081</v>
+        <v>91341.45540000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>7126.6253</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1575</v>
+        <v>98468.08070000001</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16.3499</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.57</v>
       </c>
-      <c r="L12" s="1">
-        <v>19651.5445</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>2524.9192</v>
+        <v>18283.8543</v>
       </c>
       <c r="O12" s="1">
-        <v>19651.5445</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>128030.7526</v>
+        <v>1157.229</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0312</v>
+        <v>-0.1377</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.3645</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7257.1151</v>
       </c>
       <c r="F13" s="1">
         <v>1275.0289</v>
       </c>
       <c r="G13" s="1">
-        <v>8532.144</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>110923.5527</v>
       </c>
       <c r="I13" s="1">
-        <v>129590.1814</v>
+        <v>18283.8543</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1885</v>
+        <v>129207.407</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>119590.1814</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.479</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-19590.1814</v>
       </c>
-      <c r="O13" s="1">
-        <v>10061.3631</v>
-      </c>
-      <c r="P13" s="1">
-        <v>140473.4774</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0177</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.4953</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8532.144</v>
       </c>
       <c r="F14" s="1">
         <v>-8532.144</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>140009.9231</v>
       </c>
       <c r="I14" s="1">
-        <v>129590.1814</v>
+        <v>8693.6729</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1885</v>
+        <v>148703.596</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>119590.1814</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.0164</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>140009.9231</v>
       </c>
-      <c r="O14" s="1">
-        <v>150071.2862</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150071.2862</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0027</v>
+        <v>0.0682</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.4508</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.2552</v>
+        <v>14.1583</v>
       </c>
       <c r="D3" s="1">
-        <v>15.1017</v>
+        <v>13.828</v>
       </c>
       <c r="E3" s="1">
-        <v>15.1312</v>
+        <v>13.8921</v>
       </c>
       <c r="F3" s="1">
-        <v>15.1601</v>
+        <v>13.9549</v>
       </c>
       <c r="G3" s="1">
-        <v>15.1885</v>
+        <v>14.0164</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.248</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2863</v>
+        <v>0.4097</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2583</v>
+        <v>0.3806</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2624</v>
+        <v>0.3852</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2666</v>
+        <v>0.3899</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2708</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2042</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0848</v>
+        <v>0.2684</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08069999999999999</v>
+        <v>0.2395</v>
       </c>
       <c r="E5" s="3">
-        <v>0.081</v>
+        <v>0.2441</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0813</v>
+        <v>0.2488</v>
       </c>
       <c r="G5" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.2537</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.1147</v>
       </c>
       <c r="C6" s="4">
-        <v>3.1365</v>
+        <v>1.4509</v>
       </c>
       <c r="D6" s="4">
-        <v>2.9488</v>
+        <v>1.5043</v>
       </c>
       <c r="E6" s="4">
-        <v>2.9883</v>
+        <v>1.4949</v>
       </c>
       <c r="F6" s="4">
-        <v>3.0272</v>
+        <v>1.4854</v>
       </c>
       <c r="G6" s="4">
-        <v>3.0653</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5357</v>
+        <v>-0.0226</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5371</v>
+        <v>0.5128</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5379</v>
+        <v>0.5125</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5387</v>
+        <v>0.5122</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5396</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>21074.1528</v>
+        <v>19247.5468</v>
       </c>
       <c r="D8" s="1">
-        <v>18361.2591</v>
+        <v>17214.037</v>
       </c>
       <c r="E8" s="1">
-        <v>18779.9443</v>
+        <v>17562.3646</v>
       </c>
       <c r="F8" s="1">
-        <v>19209.9395</v>
+        <v>17918.9083</v>
       </c>
       <c r="G8" s="1">
-        <v>19651.5445</v>
+        <v>18283.8543</v>
       </c>
     </row>
   </sheetData>
